--- a/similarities/split_global/harmonic_similarity_timestamps_383.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_383.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj', 'F#:maj', 'B:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:31.237210', '0:00:36.914489')]</t>
+          <t>('0:00:00.800000', '0:00:02.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.960000', '0:00:16.480000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.23721']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['F:7', 'A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:01:51.460000', '0:02:04.800000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:07.900000', '0:00:21.560000')]</t>
+          <t>('0:01:36.660000', '0:01:46.300000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=111.46</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=96.66</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:40.280000', '0:00:45.520000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=40.28']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:01:58.640000', '0:02:03.070000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:00:37.738798', '0:00:41.709410')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=118.64</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000'), ('0:00:17.160000', '0:00:19.520000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:00:46.750000', '0:00:47.790000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>jaah_7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab/7', 'F:min', 'Db:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:04.279353', '0:00:08.853684')]</t>
+          <t>('0:00:52.580000', '0:00:59.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:57.388000', '0:01:02.385000')]</t>
+          <t>('0:00:27.250000', '0:00:30.810000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-243#t=4.279353']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=57.388']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:12.600000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:18.013446', '0:00:21.856349')]</t>
+          <t>('0:00:12.094553', '0:00:16.853782')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-231#t=18.013446']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>jaah_70</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['Gb:maj6', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+          <t>('0:01:05.760000', '0:01:11.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:37.750000', '0:00:41.100000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=37.75</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
+          <t>('0:00:58.620000', '0:01:05.560000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:24.387324', '0:00:27.452358')]</t>
+          <t>('0:01:03.524557', '0:01:10.536984')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=63.524557</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A:min', 'E', 'A:min', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#:min', 'C#', 'F#:min', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:06.040000', '0:01:19')]</t>
+          <t>('0:00:12.824000', '0:00:24.844000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:55.080000', '0:02:05.160000')]</t>
+          <t>('0:00:09.422063', '0:00:13.206916')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=9.422063</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:maj', 'D:7/C', 'D#:maj/A#']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'F']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:53.460000', '0:00:59.700000')]</t>
+          <t>('0:00:43.340000', '0:00:59.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:53.673000', '0:01:00.522000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=53.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=53.673']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'G', 'C:min']]</t>
+          <t>['E:7', 'A:7', 'D:7']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:7', 'C:7', 'F:7']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:22.981000', '0:00:29.373000')]</t>
+          <t>('0:00:23.810000', '0:00:28.450000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:43.520000', '0:00:48.160000')]</t>
+          <t>('0:00:14.770000', '0:00:19.670000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=22.981']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=43.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=14.77</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E:7', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min']]</t>
+          <t>['F#:7', 'B:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:48.277000', '0:00:54.481000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+          <t>('0:00:09.540000', '0:00:11.600000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=43.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_35</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['G:7', 'C', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D:7', 'G:maj', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:20.769931', '0:00:26.946439')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:01:00.620000', '0:01:07.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=20.769931</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=60.62</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
